--- a/templates/试卷模板.xlsx
+++ b/templates/试卷模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\50-skillup_platform\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BD0FAE-4460-44C8-8847-96352B8657B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A371AEF4-355E-4ECC-B2DB-77FEA70C1046}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="1395" windowWidth="20535" windowHeight="12765" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="20535" windowHeight="12765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="题型分布" sheetId="2" r:id="rId1"/>
@@ -287,7 +287,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SPCT-4-LL-2005-001</t>
+    <t>SPCT-4-LL-2025-018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEB3817-2850-40CD-BB80-0E76CBC316C0}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -810,9 +810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
